--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVELOPMENT\RPA UiPath\ALFRED\sys_MyCRMLead_Alfred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85979E38-78CB-4299-95F6-A945CD6B20C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFD98D-092E-406D-9358-675BC06C12A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="445" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -551,16 +551,13 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -570,7 +567,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="top"/>
@@ -586,7 +583,6 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,10 +890,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:V10"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="L1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <x:selection activeCell="U1" sqref="U1 U1:V1"/>
+      <x:selection activeCell="U1" sqref="U1 U:V"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.066406" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -985,10 +981,10 @@
       <x:c r="T1" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="7" t="s">
+      <x:c r="U1" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="V1" s="7" t="s">
+      <x:c r="V1" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
     </x:row>
